--- a/public/ordersDumpy.xlsx
+++ b/public/ordersDumpy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20155\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USH\abdallah\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{634271A0-C735-4609-809F-9AB3E133B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157ABC6-EDAA-42F8-97BC-4F2BA88FD7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ECA99863-623D-49F5-B819-B9A67FE2C7A7}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{ECA99863-623D-49F5-B819-B9A67FE2C7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>اسم العميل</t>
-  </si>
-  <si>
-    <t>رقم العميل</t>
-  </si>
-  <si>
-    <t>كود المركز</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>كود المندوب</t>
   </si>
@@ -53,13 +44,13 @@
     <t>كود الصنف</t>
   </si>
   <si>
-    <t>عنوان العميل</t>
-  </si>
-  <si>
     <t>الكمية</t>
   </si>
   <si>
     <t>الخصم الأضافي</t>
+  </si>
+  <si>
+    <t>كود العميل</t>
   </si>
 </sst>
 </file>
@@ -431,46 +422,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE978442-C253-45A8-95D3-21F97A31F0C9}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/ordersDumpy.xlsx
+++ b/public/ordersDumpy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USH\abdallah\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157ABC6-EDAA-42F8-97BC-4F2BA88FD7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A07004-D35D-4B86-9681-A3834518045F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{ECA99863-623D-49F5-B819-B9A67FE2C7A7}"/>
+    <workbookView xWindow="1545" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{ECA99863-623D-49F5-B819-B9A67FE2C7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>كود المندوب</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>كود العميل</t>
+  </si>
+  <si>
+    <t>اسم العميل</t>
+  </si>
+  <si>
+    <t>رقم العميل</t>
+  </si>
+  <si>
+    <t>كود المركز</t>
+  </si>
+  <si>
+    <t>العنوان</t>
   </si>
 </sst>
 </file>
@@ -422,33 +434,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE978442-C253-45A8-95D3-21F97A31F0C9}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="6" width="18" customWidth="1"/>
+    <col min="7" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
